--- a/t_System_RefreshTime.xlsx
+++ b/t_System_RefreshTime.xlsx
@@ -1,44 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project1\Client\excel\tower_20250124\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADD64A1-B971-484E-889D-4FA5B3645EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27950" windowHeight="12280"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>冰河</author>
   </authors>
   <commentList>
-    <comment ref="B48" authorId="0">
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>冰河:</t>
@@ -47,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -54,13 +49,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B53" authorId="0">
+    <comment ref="B53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>冰河:</t>
@@ -69,6 +65,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,13 +73,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0">
+    <comment ref="B57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>冰河:</t>
@@ -91,6 +89,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -98,13 +97,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C72" authorId="0">
+    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>冰河:</t>
@@ -113,6 +113,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -120,13 +121,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B86" authorId="0">
+    <comment ref="B86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>冰河:</t>
@@ -135,6 +137,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -142,13 +145,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C89" authorId="0">
+    <comment ref="C89" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>冰河:</t>
@@ -157,6 +161,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -169,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="185">
   <si>
     <t>id</t>
   </si>
@@ -725,18 +730,16 @@
   <si>
     <t>补签价格</t>
   </si>
+  <si>
+    <t>原值缩放系数0.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,6 +752,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -756,166 +760,32 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -928,194 +798,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1123,251 +807,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1400,61 +842,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1712,26 +1110,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="45.25" customWidth="1"/>
     <col min="3" max="3" width="43.875" customWidth="1"/>
     <col min="4" max="4" width="109.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1742,7 +1141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1751,7 +1150,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1760,7 +1159,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1769,7 +1168,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1780,7 +1179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1791,7 +1190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1802,7 +1201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1813,7 +1212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1824,7 +1223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1835,7 +1234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1846,7 +1245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1857,7 +1256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1868,7 +1267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1879,7 +1278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1890,7 +1289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1901,7 +1300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1912,7 +1311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1923,7 +1322,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1934,7 +1333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1945,7 +1344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1956,7 +1355,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1967,7 +1366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1978,7 +1377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1989,7 +1388,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -2000,7 +1399,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -2011,7 +1410,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -2022,7 +1421,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -2033,7 +1432,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -2044,7 +1443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -2055,7 +1454,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -2066,7 +1465,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -2077,7 +1476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -2088,7 +1487,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -2099,7 +1498,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2110,7 +1509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2121,7 +1520,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2132,7 +1531,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2143,7 +1542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2154,7 +1553,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -2165,7 +1564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -2176,7 +1575,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -2187,7 +1586,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -2198,7 +1597,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -2209,7 +1608,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -2220,7 +1619,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -2231,7 +1630,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -2242,7 +1641,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -2253,7 +1652,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -2264,7 +1663,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -2275,7 +1674,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -2286,7 +1685,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -2297,7 +1696,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -2308,7 +1707,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -2319,7 +1718,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>51</v>
       </c>
@@ -2330,7 +1729,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>52</v>
       </c>
@@ -2341,7 +1740,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>53</v>
       </c>
@@ -2352,7 +1751,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>54</v>
       </c>
@@ -2363,7 +1762,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>55</v>
       </c>
@@ -2374,7 +1773,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -2385,7 +1784,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -2396,7 +1795,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -2405,7 +1804,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -2416,7 +1815,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" ht="140" spans="1:3">
+    <row r="64" spans="1:3" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -2427,7 +1826,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>61</v>
       </c>
@@ -2438,7 +1837,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>62</v>
       </c>
@@ -2449,7 +1848,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>63</v>
       </c>
@@ -2460,7 +1859,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>64</v>
       </c>
@@ -2471,7 +1870,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>65</v>
       </c>
@@ -2482,7 +1881,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>66</v>
       </c>
@@ -2493,7 +1892,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>67</v>
       </c>
@@ -2504,7 +1903,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>68</v>
       </c>
@@ -2515,7 +1914,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>69</v>
       </c>
@@ -2526,7 +1925,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>70</v>
       </c>
@@ -2537,7 +1936,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>71</v>
       </c>
@@ -2548,7 +1947,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>72</v>
       </c>
@@ -2559,7 +1958,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>114</v>
       </c>
@@ -2570,7 +1969,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>74</v>
       </c>
@@ -2581,7 +1980,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -2592,7 +1991,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>76</v>
       </c>
@@ -2603,7 +2002,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>77</v>
       </c>
@@ -2614,7 +2013,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>78</v>
       </c>
@@ -2625,7 +2024,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>79</v>
       </c>
@@ -2636,7 +2035,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>80</v>
       </c>
@@ -2647,7 +2046,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>81</v>
       </c>
@@ -2658,7 +2057,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>82</v>
       </c>
@@ -2669,7 +2068,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>83</v>
       </c>
@@ -2680,14 +2079,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>84</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>85</v>
       </c>
@@ -2698,7 +2097,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>86</v>
       </c>
@@ -2707,7 +2106,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>87</v>
       </c>
@@ -2718,7 +2117,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>88</v>
       </c>
@@ -2729,7 +2128,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>89</v>
       </c>
@@ -2740,7 +2139,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>90</v>
       </c>
@@ -2751,7 +2150,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>91</v>
       </c>
@@ -2762,7 +2161,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>92</v>
       </c>
@@ -2773,7 +2172,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>93</v>
       </c>
@@ -2784,7 +2183,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>94</v>
       </c>
@@ -2795,7 +2194,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>95</v>
       </c>
@@ -2806,7 +2205,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>96</v>
       </c>
@@ -2817,7 +2216,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>97</v>
       </c>
@@ -2828,7 +2227,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>98</v>
       </c>
@@ -2837,7 +2236,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>99</v>
       </c>
@@ -2848,7 +2247,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>100</v>
       </c>
@@ -2859,7 +2258,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>101</v>
       </c>
@@ -2870,7 +2269,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>102</v>
       </c>
@@ -2881,7 +2280,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>103</v>
       </c>
@@ -2892,7 +2291,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>104</v>
       </c>
@@ -2903,7 +2302,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>105</v>
       </c>
@@ -2914,7 +2313,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>160</v>
       </c>
@@ -2925,7 +2324,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>107</v>
       </c>
@@ -2936,7 +2335,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>108</v>
       </c>
@@ -2947,7 +2346,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>109</v>
       </c>
@@ -2958,7 +2357,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>110</v>
       </c>
@@ -2969,7 +2368,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>111</v>
       </c>
@@ -2980,7 +2379,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>112</v>
       </c>
@@ -2991,7 +2390,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>113</v>
       </c>
@@ -3002,7 +2401,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>114</v>
       </c>
@@ -3013,7 +2412,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>115</v>
       </c>
@@ -3024,7 +2423,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>116</v>
       </c>
@@ -3035,7 +2434,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>117</v>
       </c>
@@ -3046,7 +2445,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>118</v>
       </c>
@@ -3057,7 +2456,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>119</v>
       </c>
@@ -3068,7 +2467,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>120</v>
       </c>
@@ -3079,7 +2478,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>121</v>
       </c>
@@ -3090,14 +2489,25 @@
         <v>183</v>
       </c>
     </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>122</v>
+      </c>
+      <c r="B126">
+        <v>1000</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B75" r:id="rId3" display="https://www.taptap.cn/events/game-sign/csfud0lv"/>
-    <hyperlink ref="B76" r:id="rId4" display="https://www.taptap.cn/moment/601349374529768313"/>
+    <hyperlink ref="B75" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B76" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>